--- a/data/men/M_2021_11_Pisek.xlsx
+++ b/data/men/M_2021_11_Pisek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B348F9F-A429-4198-98DF-3886116816A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DCEE5-16A9-4EB9-8C47-5040E5EDFBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="-14628" windowWidth="19536" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="-14580" windowWidth="14880" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="eliminations" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$127</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4917" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="154">
   <si>
     <t>LUŠTICKÝ Josef</t>
   </si>
@@ -508,13 +509,31 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>Eliminace_64</t>
+  </si>
+  <si>
+    <t>Eliminace_32</t>
+  </si>
+  <si>
+    <t>Eliminace_16</t>
+  </si>
+  <si>
+    <t>Eliminace_8</t>
+  </si>
+  <si>
+    <t>Eliminace_4</t>
+  </si>
+  <si>
+    <t>Eliminace_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -586,7 +605,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -897,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18553FFA-B042-4E5F-9AFC-B6385F9E335A}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8353,13 +8372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
@@ -24796,12 +24815,4473 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D260D1-8EEE-4B84-BE83-A4EA8BEA63C5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="12">
+        <v>15</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="12">
+        <v>15</v>
+      </c>
+      <c r="K3" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="12">
+        <v>15</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2</v>
+      </c>
+      <c r="K6" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="12">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="13">
+        <v>6</v>
+      </c>
+      <c r="K8" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="13">
+        <v>10</v>
+      </c>
+      <c r="K9" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="12">
+        <v>15</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="12">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="13">
+        <v>10</v>
+      </c>
+      <c r="K12" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="13">
+        <v>12</v>
+      </c>
+      <c r="K14" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="12">
+        <v>15</v>
+      </c>
+      <c r="K15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="13">
+        <v>10</v>
+      </c>
+      <c r="K16" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="12">
+        <v>15</v>
+      </c>
+      <c r="K17" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="12">
+        <v>15</v>
+      </c>
+      <c r="K18" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="13">
+        <v>9</v>
+      </c>
+      <c r="K19" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="13">
+        <v>7</v>
+      </c>
+      <c r="K20" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="13">
+        <v>10</v>
+      </c>
+      <c r="K21" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="12">
+        <v>15</v>
+      </c>
+      <c r="K22" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="13">
+        <v>11</v>
+      </c>
+      <c r="K23" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="13">
+        <v>8</v>
+      </c>
+      <c r="K24" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="12">
+        <v>15</v>
+      </c>
+      <c r="K25" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="13">
+        <v>11</v>
+      </c>
+      <c r="K26" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="13">
+        <v>13</v>
+      </c>
+      <c r="K27" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="12">
+        <v>15</v>
+      </c>
+      <c r="K28" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="12">
+        <v>15</v>
+      </c>
+      <c r="K29" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="12">
+        <v>15</v>
+      </c>
+      <c r="K30" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="12">
+        <v>15</v>
+      </c>
+      <c r="K31" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="13">
+        <v>8</v>
+      </c>
+      <c r="K32" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="13">
+        <v>13</v>
+      </c>
+      <c r="K33" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="12">
+        <v>15</v>
+      </c>
+      <c r="K34" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="13">
+        <v>9</v>
+      </c>
+      <c r="K35" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="12">
+        <v>15</v>
+      </c>
+      <c r="K36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="12">
+        <v>15</v>
+      </c>
+      <c r="K37" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="13">
+        <v>9</v>
+      </c>
+      <c r="K38" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="13">
+        <v>9</v>
+      </c>
+      <c r="K39" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="12">
+        <v>15</v>
+      </c>
+      <c r="K40" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="12">
+        <v>15</v>
+      </c>
+      <c r="K41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="12">
+        <v>15</v>
+      </c>
+      <c r="K42" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="13">
+        <v>3</v>
+      </c>
+      <c r="K43" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="13">
+        <v>14</v>
+      </c>
+      <c r="K44" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="12">
+        <v>15</v>
+      </c>
+      <c r="K45" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="13">
+        <v>10</v>
+      </c>
+      <c r="K46" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="13">
+        <v>13</v>
+      </c>
+      <c r="K47" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="12">
+        <v>15</v>
+      </c>
+      <c r="K48" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="13">
+        <v>13</v>
+      </c>
+      <c r="K49" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="13">
+        <v>8</v>
+      </c>
+      <c r="K50" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="12">
+        <v>15</v>
+      </c>
+      <c r="K51" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="12">
+        <v>15</v>
+      </c>
+      <c r="K52" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="13">
+        <v>6</v>
+      </c>
+      <c r="K53" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="13">
+        <v>11</v>
+      </c>
+      <c r="K54" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="12">
+        <v>15</v>
+      </c>
+      <c r="K55" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" s="13">
+        <v>8</v>
+      </c>
+      <c r="K56" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="13">
+        <v>8</v>
+      </c>
+      <c r="K57" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J58" s="13">
+        <v>2</v>
+      </c>
+      <c r="K58" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" s="12">
+        <v>15</v>
+      </c>
+      <c r="K59" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="12">
+        <v>15</v>
+      </c>
+      <c r="K60" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61" s="12">
+        <v>15</v>
+      </c>
+      <c r="K61" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="12">
+        <v>15</v>
+      </c>
+      <c r="K62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="12">
+        <v>15</v>
+      </c>
+      <c r="K63" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J64" s="13">
+        <v>15</v>
+      </c>
+      <c r="K64" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J65" s="16">
+        <v>15</v>
+      </c>
+      <c r="K65" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J66" s="16">
+        <v>15</v>
+      </c>
+      <c r="K66" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67" s="18">
+        <v>11</v>
+      </c>
+      <c r="K67" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68" s="18">
+        <v>6</v>
+      </c>
+      <c r="K68" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69" s="18">
+        <v>14</v>
+      </c>
+      <c r="K69" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J70" s="16">
+        <v>15</v>
+      </c>
+      <c r="K70" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J71" s="18">
+        <v>5</v>
+      </c>
+      <c r="K71" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72" s="16">
+        <v>15</v>
+      </c>
+      <c r="K72" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J73" s="18">
+        <v>8</v>
+      </c>
+      <c r="K73" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J74" s="18">
+        <v>9</v>
+      </c>
+      <c r="K74" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J75" s="18">
+        <v>11</v>
+      </c>
+      <c r="K75" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J76" s="16">
+        <v>15</v>
+      </c>
+      <c r="K76" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J77" s="16">
+        <v>15</v>
+      </c>
+      <c r="K77" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J78" s="16">
+        <v>15</v>
+      </c>
+      <c r="K78" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J79" s="16">
+        <v>15</v>
+      </c>
+      <c r="K79" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J80" s="18">
+        <v>12</v>
+      </c>
+      <c r="K80" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J81" s="16">
+        <v>15</v>
+      </c>
+      <c r="K81" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J82" s="16">
+        <v>15</v>
+      </c>
+      <c r="K82" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J83" s="16">
+        <v>15</v>
+      </c>
+      <c r="K83" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J84" s="18">
+        <v>9</v>
+      </c>
+      <c r="K84" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J85" s="18">
+        <v>9</v>
+      </c>
+      <c r="K85" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J86" s="18">
+        <v>10</v>
+      </c>
+      <c r="K86" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J87" s="16">
+        <v>15</v>
+      </c>
+      <c r="K87" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J88" s="18">
+        <v>5</v>
+      </c>
+      <c r="K88" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J89" s="16">
+        <v>15</v>
+      </c>
+      <c r="K89" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J90" s="18">
+        <v>13</v>
+      </c>
+      <c r="K90" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J91" s="18">
+        <v>9</v>
+      </c>
+      <c r="K91" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J92" s="18">
+        <v>8</v>
+      </c>
+      <c r="K92" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J93" s="16">
+        <v>15</v>
+      </c>
+      <c r="K93" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J94" s="16">
+        <v>15</v>
+      </c>
+      <c r="K94" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J95" s="18">
+        <v>13</v>
+      </c>
+      <c r="K95" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J96" s="16">
+        <v>15</v>
+      </c>
+      <c r="K96" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J97" s="16">
+        <v>15</v>
+      </c>
+      <c r="K97" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J98" s="16">
+        <v>15</v>
+      </c>
+      <c r="K98" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J99" s="16">
+        <v>15</v>
+      </c>
+      <c r="K99" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J100" s="16">
+        <v>15</v>
+      </c>
+      <c r="K100" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J101" s="18">
+        <v>14</v>
+      </c>
+      <c r="K101" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J102" s="18">
+        <v>8</v>
+      </c>
+      <c r="K102" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J103" s="16">
+        <v>15</v>
+      </c>
+      <c r="K103" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J104" s="18">
+        <v>11</v>
+      </c>
+      <c r="K104" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J105" s="18">
+        <v>12</v>
+      </c>
+      <c r="K105" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J106" s="16">
+        <v>15</v>
+      </c>
+      <c r="K106" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J107" s="18">
+        <v>8</v>
+      </c>
+      <c r="K107" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J108" s="18">
+        <v>14</v>
+      </c>
+      <c r="K108" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B109" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J109" s="18">
+        <v>8</v>
+      </c>
+      <c r="K109" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J110" s="16">
+        <v>15</v>
+      </c>
+      <c r="K110" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B111" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J111" s="16">
+        <v>15</v>
+      </c>
+      <c r="K111" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B112" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J112" s="18">
+        <v>6</v>
+      </c>
+      <c r="K112" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J113" s="16">
+        <v>15</v>
+      </c>
+      <c r="K113" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J114" s="16">
+        <v>15</v>
+      </c>
+      <c r="K114" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J115" s="18">
+        <v>10</v>
+      </c>
+      <c r="K115" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J116" s="18">
+        <v>9</v>
+      </c>
+      <c r="K116" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J117" s="16">
+        <v>15</v>
+      </c>
+      <c r="K117" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J118" s="18">
+        <v>7</v>
+      </c>
+      <c r="K118" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B119" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J119" s="18">
+        <v>11</v>
+      </c>
+      <c r="K119" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J120" s="16">
+        <v>15</v>
+      </c>
+      <c r="K120" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J121" s="18">
+        <v>14</v>
+      </c>
+      <c r="K121" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J122" s="18">
+        <v>6</v>
+      </c>
+      <c r="K122" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J123" s="18">
+        <v>6</v>
+      </c>
+      <c r="K123" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J124" s="16">
+        <v>15</v>
+      </c>
+      <c r="K124" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J125" s="16">
+        <v>15</v>
+      </c>
+      <c r="K125" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J126" s="16">
+        <v>15</v>
+      </c>
+      <c r="K126" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J127" s="18">
+        <v>12</v>
+      </c>
+      <c r="K127" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <autoFilter ref="A1:K127" xr:uid="{E0D260D1-8EEE-4B84-BE83-A4EA8BEA63C5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/men/M_2021_11_Pisek.xlsx
+++ b/data/men/M_2021_11_Pisek.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0914872-95BA-45A4-9DFD-9062143B87FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A90B82-7849-4630-A46F-ED32525DE669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="-15996" windowWidth="25632" windowHeight="14976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="-16284" windowWidth="25488" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="2" r:id="rId1"/>
-    <sheet name="first_round" sheetId="3" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="4" r:id="rId3"/>
-    <sheet name="pools" sheetId="1" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="2" r:id="rId2"/>
+    <sheet name="first_round" sheetId="3" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="4" r:id="rId4"/>
+    <sheet name="pools" sheetId="1" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6439" uniqueCount="142">
   <si>
     <t>LUŠTICKÝ Josef</t>
   </si>
@@ -488,6 +490,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -595,6 +600,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,11 +881,4463 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496B568D-2746-4843-AEE9-CF837E6E005D}">
+  <dimension ref="A1:Q82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J14" sqref="I14:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28313</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>P2/MAX($P$2:$P$82)</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37324</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3">
+        <v>54</v>
+      </c>
+      <c r="P3">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="19">
+        <f t="shared" ref="Q3:Q66" si="0">P3/MAX($P$2:$P$82)</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36099</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37753</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>-7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>34304</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>-10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6">
+        <v>64</v>
+      </c>
+      <c r="P6">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35185</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7">
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.58750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1">
+        <v>33038</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>-7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8">
+        <v>67</v>
+      </c>
+      <c r="P8">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30117</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>-19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37662</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>30573</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33595</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35542</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>37614</v>
+      </c>
+      <c r="I14" s="20">
+        <v>4</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14">
+        <v>29</v>
+      </c>
+      <c r="P14">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>34315</v>
+      </c>
+      <c r="I15" s="20">
+        <v>5</v>
+      </c>
+      <c r="J15" s="20">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1">
+        <v>36046</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16">
+        <v>28</v>
+      </c>
+      <c r="P16">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1">
+        <v>38019</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17">
+        <v>46</v>
+      </c>
+      <c r="P17">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1">
+        <v>31413</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.4</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <v>-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18">
+        <v>47</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1">
+        <v>37694</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>-9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19">
+        <v>63</v>
+      </c>
+      <c r="P19">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>72</v>
+      </c>
+      <c r="H20" s="1">
+        <v>33562</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>-15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20">
+        <v>75</v>
+      </c>
+      <c r="P20">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>37232</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21">
+        <v>39</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>96</v>
+      </c>
+      <c r="H22" s="1">
+        <v>38600</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0.4</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <v>-6</v>
+      </c>
+      <c r="N22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22">
+        <v>51</v>
+      </c>
+      <c r="P22">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.66249999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1">
+        <v>26996</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23">
+        <v>36</v>
+      </c>
+      <c r="P23">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.53749999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1">
+        <v>37050</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24">
+        <v>38</v>
+      </c>
+      <c r="P24">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>28</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36441</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25">
+        <v>34</v>
+      </c>
+      <c r="P25">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.51249999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1">
+        <v>29600</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0.4</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>-4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26">
+        <v>48</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>51</v>
+      </c>
+      <c r="H27" s="1">
+        <v>25022</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0.4</v>
+      </c>
+      <c r="K27">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>-6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>114</v>
+      </c>
+      <c r="H28" s="1">
+        <v>35277</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K28">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>-9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28">
+        <v>70</v>
+      </c>
+      <c r="P28">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>36324</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>35450</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.2</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>-6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30">
+        <v>66</v>
+      </c>
+      <c r="P30">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="0"/>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>83</v>
+      </c>
+      <c r="H31" s="1">
+        <v>37822</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31">
+        <v>41</v>
+      </c>
+      <c r="P31">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>58</v>
+      </c>
+      <c r="H32" s="1">
+        <v>37583</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>26</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32">
+        <v>33</v>
+      </c>
+      <c r="P32">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1">
+        <v>29419</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K33">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33">
+        <v>14</v>
+      </c>
+      <c r="P33">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1">
+        <v>37683</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>0.8</v>
+      </c>
+      <c r="K34">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>13</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34">
+        <v>19</v>
+      </c>
+      <c r="P34">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1">
+        <v>33414</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.2</v>
+      </c>
+      <c r="K35">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>-7</v>
+      </c>
+      <c r="N35" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35">
+        <v>68</v>
+      </c>
+      <c r="P35">
+        <v>68</v>
+      </c>
+      <c r="Q35" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1">
+        <v>28784</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K36">
+        <v>24</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36">
+        <v>25</v>
+      </c>
+      <c r="P36">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="19">
+        <f t="shared" si="0"/>
+        <v>0.46250000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>78</v>
+      </c>
+      <c r="H37" s="1">
+        <v>38299</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K37">
+        <v>25</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37">
+        <v>13</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="0"/>
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>64</v>
+      </c>
+      <c r="H38" s="1">
+        <v>30053</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>24</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38">
+        <v>41</v>
+      </c>
+      <c r="P38">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>72</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38168</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K39">
+        <v>22</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>-5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>118</v>
+      </c>
+      <c r="O39">
+        <v>58</v>
+      </c>
+      <c r="P39">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="0"/>
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>51</v>
+      </c>
+      <c r="H40" s="1">
+        <v>37115</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K40">
+        <v>27</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>118</v>
+      </c>
+      <c r="O40">
+        <v>23</v>
+      </c>
+      <c r="P40">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="0"/>
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>96</v>
+      </c>
+      <c r="H41" s="1">
+        <v>32982</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>0.6</v>
+      </c>
+      <c r="K41">
+        <v>23</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>38752</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>-13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>119</v>
+      </c>
+      <c r="O42">
+        <v>74</v>
+      </c>
+      <c r="P42">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="19">
+        <f t="shared" si="0"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43" s="1">
+        <v>34789</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K43">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>-7</v>
+      </c>
+      <c r="N43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O43">
+        <v>69</v>
+      </c>
+      <c r="P43">
+        <v>69</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="0"/>
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>31</v>
+      </c>
+      <c r="H44" s="1">
+        <v>26808</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+      <c r="N44" t="s">
+        <v>118</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="19">
+        <f t="shared" si="0"/>
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>36</v>
+      </c>
+      <c r="H45" s="1">
+        <v>36047</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>-2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45">
+        <v>44</v>
+      </c>
+      <c r="P45">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="19">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>36</v>
+      </c>
+      <c r="H46" s="1">
+        <v>36950</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>25</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46">
+        <v>35</v>
+      </c>
+      <c r="P46">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>37358</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>27</v>
+      </c>
+      <c r="M47">
+        <v>-11</v>
+      </c>
+      <c r="N47" t="s">
+        <v>119</v>
+      </c>
+      <c r="O47">
+        <v>72</v>
+      </c>
+      <c r="P47">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>999</v>
+      </c>
+      <c r="H48" s="1">
+        <v>38308</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>-19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>119</v>
+      </c>
+      <c r="O48">
+        <v>80</v>
+      </c>
+      <c r="P48">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>999</v>
+      </c>
+      <c r="H49" s="1">
+        <v>37005</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K49">
+        <v>23</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>-2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49">
+        <v>53</v>
+      </c>
+      <c r="P49">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>106</v>
+      </c>
+      <c r="H50" s="1">
+        <v>37506</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>22</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>-3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50">
+        <v>45</v>
+      </c>
+      <c r="P50">
+        <v>16</v>
+      </c>
+      <c r="Q50" s="19">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>93</v>
+      </c>
+      <c r="H51" s="1">
+        <v>38231</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K51">
+        <v>22</v>
+      </c>
+      <c r="L51">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <v>-3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51">
+        <v>55</v>
+      </c>
+      <c r="P51">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="19">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K52">
+        <v>27</v>
+      </c>
+      <c r="L52">
+        <v>23</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52">
+        <v>26</v>
+      </c>
+      <c r="P52">
+        <v>38</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53" s="1">
+        <v>26020</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K53">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+      <c r="N53" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53">
+        <v>21</v>
+      </c>
+      <c r="P53">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="19">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>101</v>
+      </c>
+      <c r="H54" s="1">
+        <v>32326</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <v>-18</v>
+      </c>
+      <c r="N54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O54">
+        <v>78</v>
+      </c>
+      <c r="P54">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="19">
+        <f t="shared" si="0"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>38111</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>24</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>-1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>118</v>
+      </c>
+      <c r="O55">
+        <v>40</v>
+      </c>
+      <c r="P55">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="19">
+        <f t="shared" si="0"/>
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>93</v>
+      </c>
+      <c r="H56" s="1">
+        <v>34537</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K56">
+        <v>16</v>
+      </c>
+      <c r="L56">
+        <v>28</v>
+      </c>
+      <c r="M56">
+        <v>-12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>119</v>
+      </c>
+      <c r="O56">
+        <v>73</v>
+      </c>
+      <c r="P56">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="19">
+        <f t="shared" si="0"/>
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57" s="1">
+        <v>36782</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>23</v>
+      </c>
+      <c r="N57" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="19">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>999</v>
+      </c>
+      <c r="H58" s="1">
+        <v>36349</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K58">
+        <v>27</v>
+      </c>
+      <c r="L58">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58">
+        <v>27</v>
+      </c>
+      <c r="P58">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="19">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>34</v>
+      </c>
+      <c r="H59" s="1">
+        <v>38054</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K59">
+        <v>26</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>11</v>
+      </c>
+      <c r="N59" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59">
+        <v>12</v>
+      </c>
+      <c r="P59">
+        <v>34</v>
+      </c>
+      <c r="Q59" s="19">
+        <f t="shared" si="0"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1">
+        <v>33430</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>30</v>
+      </c>
+      <c r="L60">
+        <v>9</v>
+      </c>
+      <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="19">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>31894</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K61">
+        <v>18</v>
+      </c>
+      <c r="L61">
+        <v>29</v>
+      </c>
+      <c r="M61">
+        <v>-11</v>
+      </c>
+      <c r="N61" t="s">
+        <v>119</v>
+      </c>
+      <c r="O61">
+        <v>71</v>
+      </c>
+      <c r="P61">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="19">
+        <f t="shared" si="0"/>
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>999</v>
+      </c>
+      <c r="H62" s="1">
+        <v>38452</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K62">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>-4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62">
+        <v>57</v>
+      </c>
+      <c r="P62">
+        <v>58</v>
+      </c>
+      <c r="Q62" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>47</v>
+      </c>
+      <c r="H63" s="1">
+        <v>27520</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K63">
+        <v>18</v>
+      </c>
+      <c r="L63">
+        <v>26</v>
+      </c>
+      <c r="M63">
+        <v>-8</v>
+      </c>
+      <c r="N63" t="s">
+        <v>118</v>
+      </c>
+      <c r="O63">
+        <v>62</v>
+      </c>
+      <c r="P63">
+        <v>62</v>
+      </c>
+      <c r="Q63" s="19">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>61</v>
+      </c>
+      <c r="H64" s="1">
+        <v>37969</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K64">
+        <v>22</v>
+      </c>
+      <c r="L64">
+        <v>25</v>
+      </c>
+      <c r="M64">
+        <v>-3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>118</v>
+      </c>
+      <c r="O64">
+        <v>55</v>
+      </c>
+      <c r="P64">
+        <v>56</v>
+      </c>
+      <c r="Q64" s="19">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>35324</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K65">
+        <v>28</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>14</v>
+      </c>
+      <c r="N65" t="s">
+        <v>118</v>
+      </c>
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="19">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66" s="1">
+        <v>37101</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>0.8</v>
+      </c>
+      <c r="K66">
+        <v>22</v>
+      </c>
+      <c r="L66">
+        <v>11</v>
+      </c>
+      <c r="M66">
+        <v>11</v>
+      </c>
+      <c r="N66" t="s">
+        <v>118</v>
+      </c>
+      <c r="O66">
+        <v>17</v>
+      </c>
+      <c r="P66">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="19">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>47</v>
+      </c>
+      <c r="H67" s="1">
+        <v>30812</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K67">
+        <v>24</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>118</v>
+      </c>
+      <c r="O67">
+        <v>52</v>
+      </c>
+      <c r="P67">
+        <v>54</v>
+      </c>
+      <c r="Q67" s="19">
+        <f t="shared" ref="Q67:Q82" si="1">P67/MAX($P$2:$P$82)</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>43</v>
+      </c>
+      <c r="H68" s="1">
+        <v>37028</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K68">
+        <v>19</v>
+      </c>
+      <c r="L68">
+        <v>27</v>
+      </c>
+      <c r="M68">
+        <v>-8</v>
+      </c>
+      <c r="N68" t="s">
+        <v>118</v>
+      </c>
+      <c r="O68">
+        <v>61</v>
+      </c>
+      <c r="P68">
+        <v>61</v>
+      </c>
+      <c r="Q68" s="19">
+        <f t="shared" si="1"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>72</v>
+      </c>
+      <c r="H69" s="1">
+        <v>27949</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K69">
+        <v>26</v>
+      </c>
+      <c r="L69">
+        <v>19</v>
+      </c>
+      <c r="M69">
+        <v>7</v>
+      </c>
+      <c r="N69" t="s">
+        <v>118</v>
+      </c>
+      <c r="O69">
+        <v>20</v>
+      </c>
+      <c r="P69">
+        <v>36</v>
+      </c>
+      <c r="Q69" s="19">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70" s="1">
+        <v>36219</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K70">
+        <v>27</v>
+      </c>
+      <c r="L70">
+        <v>16</v>
+      </c>
+      <c r="M70">
+        <v>11</v>
+      </c>
+      <c r="N70" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70">
+        <v>11</v>
+      </c>
+      <c r="P70">
+        <v>7</v>
+      </c>
+      <c r="Q70" s="19">
+        <f t="shared" si="1"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>93</v>
+      </c>
+      <c r="H71" s="1">
+        <v>34062</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>0.6</v>
+      </c>
+      <c r="K71">
+        <v>19</v>
+      </c>
+      <c r="L71">
+        <v>17</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71">
+        <v>32</v>
+      </c>
+      <c r="P71">
+        <v>40</v>
+      </c>
+      <c r="Q71" s="19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>64</v>
+      </c>
+      <c r="H72" s="1">
+        <v>38211</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K72">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <v>19</v>
+      </c>
+      <c r="M72">
+        <v>6</v>
+      </c>
+      <c r="N72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72">
+        <v>21</v>
+      </c>
+      <c r="P72">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="19">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>78</v>
+      </c>
+      <c r="H73" s="1">
+        <v>27467</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0.5</v>
+      </c>
+      <c r="K73">
+        <v>23</v>
+      </c>
+      <c r="L73">
+        <v>22</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73">
+        <v>37</v>
+      </c>
+      <c r="P73">
+        <v>15</v>
+      </c>
+      <c r="Q73" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>51</v>
+      </c>
+      <c r="H74" s="1">
+        <v>36128</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>0.4</v>
+      </c>
+      <c r="K74">
+        <v>18</v>
+      </c>
+      <c r="L74">
+        <v>23</v>
+      </c>
+      <c r="M74">
+        <v>-5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>118</v>
+      </c>
+      <c r="O74">
+        <v>49</v>
+      </c>
+      <c r="P74">
+        <v>51</v>
+      </c>
+      <c r="Q74" s="19">
+        <f t="shared" si="1"/>
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>64</v>
+      </c>
+      <c r="H75" s="1">
+        <v>24724</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>11</v>
+      </c>
+      <c r="L75">
+        <v>25</v>
+      </c>
+      <c r="M75">
+        <v>-14</v>
+      </c>
+      <c r="N75" t="s">
+        <v>119</v>
+      </c>
+      <c r="O75">
+        <v>77</v>
+      </c>
+      <c r="P75">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="19">
+        <f t="shared" si="1"/>
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>106</v>
+      </c>
+      <c r="H76" s="1">
+        <v>34163</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <v>26</v>
+      </c>
+      <c r="M76">
+        <v>-6</v>
+      </c>
+      <c r="N76" t="s">
+        <v>118</v>
+      </c>
+      <c r="O76">
+        <v>59</v>
+      </c>
+      <c r="P76">
+        <v>60</v>
+      </c>
+      <c r="Q76" s="19">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>85</v>
+      </c>
+      <c r="H77" s="1">
+        <v>37484</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>0.8</v>
+      </c>
+      <c r="K77">
+        <v>24</v>
+      </c>
+      <c r="L77">
+        <v>13</v>
+      </c>
+      <c r="M77">
+        <v>11</v>
+      </c>
+      <c r="N77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O77">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="19">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>38</v>
+      </c>
+      <c r="H78" s="1">
+        <v>34058</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K78">
+        <v>13</v>
+      </c>
+      <c r="L78">
+        <v>25</v>
+      </c>
+      <c r="M78">
+        <v>-12</v>
+      </c>
+      <c r="N78" t="s">
+        <v>119</v>
+      </c>
+      <c r="O78">
+        <v>65</v>
+      </c>
+      <c r="P78">
+        <v>65</v>
+      </c>
+      <c r="Q78" s="19">
+        <f t="shared" si="1"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>72</v>
+      </c>
+      <c r="H79" s="1">
+        <v>22885</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>19</v>
+      </c>
+      <c r="L79">
+        <v>30</v>
+      </c>
+      <c r="M79">
+        <v>-11</v>
+      </c>
+      <c r="N79" t="s">
+        <v>119</v>
+      </c>
+      <c r="O79">
+        <v>76</v>
+      </c>
+      <c r="P79">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="19">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>101</v>
+      </c>
+      <c r="H80" s="1">
+        <v>22510</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>12</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <v>-18</v>
+      </c>
+      <c r="N80" t="s">
+        <v>119</v>
+      </c>
+      <c r="O80">
+        <v>78</v>
+      </c>
+      <c r="P80">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="19">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>85</v>
+      </c>
+      <c r="H81" s="1">
+        <v>27167</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>0.8</v>
+      </c>
+      <c r="K81">
+        <v>19</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81" t="s">
+        <v>118</v>
+      </c>
+      <c r="O81">
+        <v>18</v>
+      </c>
+      <c r="P81">
+        <v>35</v>
+      </c>
+      <c r="Q81" s="19">
+        <f t="shared" si="1"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>22</v>
+      </c>
+      <c r="H82" s="1">
+        <v>36875</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>0.6</v>
+      </c>
+      <c r="K82">
+        <v>21</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>118</v>
+      </c>
+      <c r="O82">
+        <v>31</v>
+      </c>
+      <c r="P82">
+        <v>26</v>
+      </c>
+      <c r="Q82" s="19">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{496B568D-2746-4843-AEE9-CF837E6E005D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18553FFA-B042-4E5F-9AFC-B6385F9E335A}">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="J1:L1048576"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,18 +7237,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{18553FFA-B042-4E5F-9AFC-B6385F9E335A}"/>
+  <autoFilter ref="A1:G1" xr:uid="{18553FFA-B042-4E5F-9AFC-B6385F9E335A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G82">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6054B4FA-160C-49E5-AAFC-7B57148E2020}">
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,31 +7305,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>118</v>
@@ -2883,31 +7346,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="J3" t="s">
         <v>118</v>
@@ -2924,31 +7387,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>118</v>
@@ -2965,31 +7428,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="J5" t="s">
         <v>118</v>
@@ -3006,31 +7469,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="J6" t="s">
         <v>118</v>
@@ -3047,31 +7510,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
-        <v>5</v>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>118</v>
@@ -3088,34 +7551,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.83299999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="1">
         <v>44506</v>
@@ -3129,34 +7592,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.83299999999999996</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>-19</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9" s="1">
         <v>44506</v>
@@ -3170,13 +7633,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3188,13 +7651,13 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>17</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>118</v>
@@ -3211,13 +7674,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -3229,13 +7692,13 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
         <v>118</v>
@@ -3252,31 +7715,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
         <v>118</v>
@@ -3293,10 +7756,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -3311,13 +7774,13 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>118</v>
@@ -3334,31 +7797,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0.83299999999999996</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>118</v>
@@ -3375,10 +7838,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -3386,20 +7849,20 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>0.83299999999999996</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>118</v>
@@ -3416,31 +7879,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0.83299999999999996</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>118</v>
@@ -3457,31 +7920,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I17">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="J17" t="s">
         <v>118</v>
@@ -3498,31 +7961,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>0.8</v>
-      </c>
-      <c r="G18">
-        <v>22</v>
-      </c>
       <c r="H18">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="J18" t="s">
         <v>118</v>
@@ -3539,31 +8002,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>0.8</v>
-      </c>
-      <c r="G19">
-        <v>19</v>
-      </c>
       <c r="H19">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="J19" t="s">
         <v>118</v>
@@ -3580,34 +8043,34 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.8</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>-15</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="1">
         <v>44506</v>
@@ -3621,31 +8084,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>118</v>
@@ -3662,31 +8125,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.66700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="J22" t="s">
         <v>118</v>
@@ -3703,31 +8166,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>118</v>
@@ -3744,31 +8207,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.66700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>118</v>
@@ -3785,31 +8248,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G25">
-        <v>25</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
       <c r="I25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>118</v>
@@ -3826,31 +8289,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.66700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>19</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="J26" t="s">
         <v>118</v>
@@ -3867,31 +8330,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.66700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G27">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H27">
         <v>23</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="J27" t="s">
         <v>118</v>
@@ -3908,34 +8371,34 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G28">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G28">
-        <v>27</v>
-      </c>
       <c r="H28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28" s="1">
         <v>44506</v>
@@ -3949,31 +8412,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>0.66700000000000004</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
         <v>118</v>
@@ -3990,34 +8453,34 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G30">
-        <v>25</v>
-      </c>
       <c r="H30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K30" s="1">
         <v>44506</v>
@@ -4031,13 +8494,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4046,16 +8509,16 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
         <v>23</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="s">
         <v>118</v>
@@ -4072,13 +8535,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -4087,16 +8550,16 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="H32">
         <v>21</v>
       </c>
-      <c r="H32">
-        <v>19</v>
-      </c>
       <c r="I32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>118</v>
@@ -4113,31 +8576,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>0.6</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J33" t="s">
         <v>118</v>
@@ -4154,10 +8617,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -4166,19 +8629,19 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J34" t="s">
         <v>118</v>
@@ -4195,34 +8658,34 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G35">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K35" s="1">
         <v>44506</v>
@@ -4236,31 +8699,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
         <v>118</v>
@@ -4277,31 +8740,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J37" t="s">
         <v>118</v>
@@ -4318,13 +8781,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -4339,10 +8802,10 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J38" t="s">
         <v>118</v>
@@ -4359,31 +8822,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H39">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J39" t="s">
         <v>118</v>
@@ -4400,31 +8863,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>22</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>118</v>
@@ -4441,13 +8904,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -4456,16 +8919,16 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>118</v>
@@ -4482,10 +8945,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -4494,22 +8957,22 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G42">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K42" s="1">
         <v>44506</v>
@@ -4523,34 +8986,34 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H43">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I43">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43" s="1">
         <v>44506</v>
@@ -4564,31 +9027,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I44">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
         <v>118</v>
@@ -4646,10 +9109,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -4664,13 +9127,13 @@
         <v>0.5</v>
       </c>
       <c r="G46">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>118</v>
@@ -4687,34 +9150,34 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.4</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I47">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K47" s="1">
         <v>44506</v>
@@ -4728,34 +9191,34 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H48">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I48">
-        <v>-2</v>
+        <v>-19</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K48" s="1">
         <v>44506</v>
@@ -4769,13 +9232,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -4784,16 +9247,16 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0.4</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G49">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J49" t="s">
         <v>118</v>
@@ -4810,31 +9273,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H50">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J50" t="s">
         <v>118</v>
@@ -4851,10 +9314,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -4866,16 +9329,16 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <v>0.4</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G51">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="J51" t="s">
         <v>118</v>
@@ -4892,31 +9355,31 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>0.4</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H52">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I52">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>118</v>
@@ -4933,31 +9396,31 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H53">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I53">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
         <v>118</v>
@@ -4974,34 +9437,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H54">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I54">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K54" s="1">
         <v>44506</v>
@@ -5015,31 +9478,31 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>0.33300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J55" t="s">
         <v>118</v>
@@ -5056,34 +9519,34 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.33300000000000002</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I56">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56" s="1">
         <v>44506</v>
@@ -5097,10 +9560,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -5109,19 +9572,19 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F57">
-        <v>0.33300000000000002</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
         <v>118</v>
@@ -5138,31 +9601,31 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>0.33300000000000002</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
       <c r="I58">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>118</v>
@@ -5179,31 +9642,31 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G59">
+        <v>26</v>
+      </c>
+      <c r="H59">
+        <v>15</v>
+      </c>
+      <c r="I59">
         <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G59">
-        <v>22</v>
-      </c>
-      <c r="H59">
-        <v>27</v>
-      </c>
-      <c r="I59">
-        <v>-5</v>
       </c>
       <c r="J59" t="s">
         <v>118</v>
@@ -5220,31 +9683,31 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>0.33300000000000002</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I60">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
         <v>118</v>
@@ -5261,34 +9724,34 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0.33300000000000002</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I61">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="J61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K61" s="1">
         <v>44506</v>
@@ -5302,13 +9765,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -5320,13 +9783,13 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="G62">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H62">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I62">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="J62" t="s">
         <v>118</v>
@@ -5384,13 +9847,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -5402,13 +9865,13 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="G64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H64">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I64">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="J64" t="s">
         <v>118</v>
@@ -5425,31 +9888,31 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>0.33300000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G65">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H65">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I65">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
         <v>118</v>
@@ -5466,34 +9929,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>0.33300000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G66">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H66">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I66">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="J66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K66" s="1">
         <v>44506</v>
@@ -5507,34 +9970,34 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G67">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I67">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="J67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K67" s="1">
         <v>44506</v>
@@ -5548,34 +10011,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>0.2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G68">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I68">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="J68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K68" s="1">
         <v>44506</v>
@@ -5589,34 +10052,34 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>0.2</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H69">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K69" s="1">
         <v>44506</v>
@@ -5630,34 +10093,34 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>0.16700000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G70">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H70">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I70">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="J70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K70" s="1">
         <v>44506</v>
@@ -5671,34 +10134,34 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>0.16700000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G71">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H71">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I71">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K71" s="1">
         <v>44506</v>
@@ -5712,34 +10175,34 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>0.16700000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G72">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H72">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I72">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K72" s="1">
         <v>44506</v>
@@ -5753,34 +10216,34 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>0.5</v>
+      </c>
+      <c r="G73">
+        <v>23</v>
+      </c>
+      <c r="H73">
+        <v>22</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="F73">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G73">
-        <v>16</v>
-      </c>
-      <c r="H73">
-        <v>27</v>
-      </c>
-      <c r="I73">
-        <v>-11</v>
-      </c>
       <c r="J73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K73" s="1">
         <v>44506</v>
@@ -5794,34 +10257,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>0.16700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H74">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I74">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="J74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K74" s="1">
         <v>44506</v>
@@ -5835,31 +10298,31 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I75">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="J75" t="s">
         <v>119</v>
@@ -5876,34 +10339,34 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>0.16700000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G76">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H76">
         <v>26</v>
       </c>
       <c r="I76">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="J76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K76" s="1">
         <v>44506</v>
@@ -5917,34 +10380,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G77">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H77">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I77">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K77" s="1">
         <v>44506</v>
@@ -5958,31 +10421,31 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H78">
         <v>25</v>
       </c>
       <c r="I78">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="J78" t="s">
         <v>119</v>
@@ -5999,13 +10462,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -6017,13 +10480,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H79">
         <v>30</v>
       </c>
       <c r="I79">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="J79" t="s">
         <v>119</v>
@@ -6081,34 +10544,34 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G81">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H81">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I81">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="J81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K81" s="1">
         <v>44506</v>
@@ -6122,34 +10585,34 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H82">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I82">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K82" s="1">
         <v>44506</v>
@@ -6164,7 +10627,7 @@
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{6054B4FA-160C-49E5-AAFC-7B57148E2020}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M82">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6172,12 +10635,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B43C37-0B2A-4721-A5E5-900830909C75}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6218,19 +10681,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>36324</v>
+        <v>28313</v>
       </c>
       <c r="F2" s="1">
         <v>44506</v>
@@ -6244,19 +10707,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>35324</v>
+        <v>37324</v>
       </c>
       <c r="F3" s="1">
         <v>44506</v>
@@ -6270,19 +10733,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>30573</v>
+        <v>36099</v>
       </c>
       <c r="F4" s="1">
         <v>44506</v>
@@ -6296,19 +10759,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>35542</v>
+        <v>37753</v>
       </c>
       <c r="F5" s="1">
         <v>44506</v>
@@ -6322,19 +10785,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>33595</v>
+        <v>34304</v>
       </c>
       <c r="F6" s="1">
         <v>44506</v>
@@ -6348,19 +10811,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>36782</v>
+        <v>35185</v>
       </c>
       <c r="F7" s="1">
         <v>44506</v>
@@ -6374,19 +10837,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>36219</v>
+        <v>33038</v>
       </c>
       <c r="F8" s="1">
         <v>44506</v>
@@ -6400,19 +10863,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>26020</v>
+        <v>30117</v>
       </c>
       <c r="F9" s="1">
         <v>44506</v>
@@ -6426,19 +10889,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>33430</v>
+        <v>37662</v>
       </c>
       <c r="F10" s="1">
         <v>44506</v>
@@ -6452,10 +10915,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -6464,7 +10927,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>34315</v>
+        <v>30573</v>
       </c>
       <c r="F11" s="1">
         <v>44506</v>
@@ -6478,19 +10941,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>36099</v>
+        <v>33595</v>
       </c>
       <c r="F12" s="1">
         <v>44506</v>
@@ -6504,19 +10967,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>37662</v>
+        <v>35542</v>
       </c>
       <c r="F13" s="1">
         <v>44506</v>
@@ -6530,10 +10993,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -6542,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>29419</v>
+        <v>37614</v>
       </c>
       <c r="F14" s="1">
         <v>44506</v>
@@ -6556,10 +11019,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -6568,7 +11031,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>37101</v>
+        <v>34315</v>
       </c>
       <c r="F15" s="1">
         <v>44506</v>
@@ -6582,10 +11045,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -6594,7 +11057,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>27467</v>
+        <v>36046</v>
       </c>
       <c r="F16" s="1">
         <v>44506</v>
@@ -6608,19 +11071,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>37506</v>
+        <v>38019</v>
       </c>
       <c r="F17" s="1">
         <v>44506</v>
@@ -6634,19 +11097,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>38299</v>
+        <v>31413</v>
       </c>
       <c r="F18" s="1">
         <v>44506</v>
@@ -6660,10 +11123,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -6672,7 +11135,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>37484</v>
+        <v>37694</v>
       </c>
       <c r="F19" s="1">
         <v>44506</v>
@@ -6686,19 +11149,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>37683</v>
+        <v>33562</v>
       </c>
       <c r="F20" s="1">
         <v>44506</v>
@@ -6712,19 +11175,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>38211</v>
+        <v>37232</v>
       </c>
       <c r="F21" s="1">
         <v>44506</v>
@@ -6738,19 +11201,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>37115</v>
+        <v>38600</v>
       </c>
       <c r="F22" s="1">
         <v>44506</v>
@@ -6764,19 +11227,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>28313</v>
+        <v>26996</v>
       </c>
       <c r="F23" s="1">
         <v>44506</v>
@@ -6790,19 +11253,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>36349</v>
+        <v>37050</v>
       </c>
       <c r="F24" s="1">
         <v>44506</v>
@@ -6816,19 +11279,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>37614</v>
+        <v>36441</v>
       </c>
       <c r="F25" s="1">
         <v>44506</v>
@@ -6842,19 +11305,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>32982</v>
+        <v>29600</v>
       </c>
       <c r="F26" s="1">
         <v>44506</v>
@@ -6868,19 +11331,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>36875</v>
+        <v>25022</v>
       </c>
       <c r="F27" s="1">
         <v>44506</v>
@@ -6894,19 +11357,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>37583</v>
+        <v>35277</v>
       </c>
       <c r="F28" s="1">
         <v>44506</v>
@@ -6920,19 +11383,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <v>37232</v>
+        <v>36324</v>
       </c>
       <c r="F29" s="1">
         <v>44506</v>
@@ -6946,19 +11409,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>38111</v>
+        <v>35450</v>
       </c>
       <c r="F30" s="1">
         <v>44506</v>
@@ -6972,19 +11435,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>31413</v>
+        <v>37822</v>
       </c>
       <c r="F31" s="1">
         <v>44506</v>
@@ -6998,19 +11461,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>37005</v>
+        <v>37583</v>
       </c>
       <c r="F32" s="1">
         <v>44506</v>
@@ -7024,19 +11487,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>37753</v>
+        <v>29419</v>
       </c>
       <c r="F33" s="1">
         <v>44506</v>
@@ -7050,19 +11513,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>26808</v>
+        <v>37683</v>
       </c>
       <c r="F34" s="1">
         <v>44506</v>
@@ -7076,19 +11539,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>38054</v>
+        <v>33414</v>
       </c>
       <c r="F35" s="1">
         <v>44506</v>
@@ -7102,19 +11565,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>27167</v>
+        <v>28784</v>
       </c>
       <c r="F36" s="1">
         <v>44506</v>
@@ -7128,19 +11591,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>27949</v>
+        <v>38299</v>
       </c>
       <c r="F37" s="1">
         <v>44506</v>
@@ -7154,19 +11617,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>28784</v>
+        <v>30053</v>
       </c>
       <c r="F38" s="1">
         <v>44506</v>
@@ -7180,19 +11643,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>33420</v>
+        <v>38168</v>
       </c>
       <c r="F39" s="1">
         <v>44506</v>
@@ -7206,19 +11669,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>36046</v>
+        <v>37115</v>
       </c>
       <c r="F40" s="1">
         <v>44506</v>
@@ -7232,19 +11695,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>34062</v>
+        <v>32982</v>
       </c>
       <c r="F41" s="1">
         <v>44506</v>
@@ -7258,19 +11721,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>36441</v>
+        <v>38752</v>
       </c>
       <c r="F42" s="1">
         <v>44506</v>
@@ -7284,19 +11747,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>36950</v>
+        <v>34789</v>
       </c>
       <c r="F43" s="1">
         <v>44506</v>
@@ -7310,10 +11773,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
@@ -7322,7 +11785,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>26996</v>
+        <v>26808</v>
       </c>
       <c r="F44" s="1">
         <v>44506</v>
@@ -7336,19 +11799,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>37050</v>
+        <v>36047</v>
       </c>
       <c r="F45" s="1">
         <v>44506</v>
@@ -7362,19 +11825,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>37822</v>
+        <v>36950</v>
       </c>
       <c r="F46" s="1">
         <v>44506</v>
@@ -7388,19 +11851,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>30053</v>
+        <v>37358</v>
       </c>
       <c r="F47" s="1">
         <v>44506</v>
@@ -7414,19 +11877,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>35185</v>
+        <v>38308</v>
       </c>
       <c r="F48" s="1">
         <v>44506</v>
@@ -7440,19 +11903,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>36047</v>
+        <v>37005</v>
       </c>
       <c r="F49" s="1">
         <v>44506</v>
@@ -7466,19 +11929,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>38019</v>
+        <v>37506</v>
       </c>
       <c r="F50" s="1">
         <v>44506</v>
@@ -7492,19 +11955,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>29600</v>
+        <v>38231</v>
       </c>
       <c r="F51" s="1">
         <v>44506</v>
@@ -7518,19 +11981,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>36128</v>
+        <v>33420</v>
       </c>
       <c r="F52" s="1">
         <v>44506</v>
@@ -7544,19 +12007,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>25022</v>
+        <v>26020</v>
       </c>
       <c r="F53" s="1">
         <v>44506</v>
@@ -7570,19 +12033,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>38600</v>
+        <v>32326</v>
       </c>
       <c r="F54" s="1">
         <v>44506</v>
@@ -7596,19 +12059,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1">
-        <v>30812</v>
+        <v>38111</v>
       </c>
       <c r="F55" s="1">
         <v>44506</v>
@@ -7622,19 +12085,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>37324</v>
+        <v>34537</v>
       </c>
       <c r="F56" s="1">
         <v>44506</v>
@@ -7648,19 +12111,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>38231</v>
+        <v>36782</v>
       </c>
       <c r="F57" s="1">
         <v>44506</v>
@@ -7674,19 +12137,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>37969</v>
+        <v>36349</v>
       </c>
       <c r="F58" s="1">
         <v>44506</v>
@@ -7700,19 +12163,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>38452</v>
+        <v>38054</v>
       </c>
       <c r="F59" s="1">
         <v>44506</v>
@@ -7726,19 +12189,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>38168</v>
+        <v>33430</v>
       </c>
       <c r="F60" s="1">
         <v>44506</v>
@@ -7752,19 +12215,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>34163</v>
+        <v>31894</v>
       </c>
       <c r="F61" s="1">
         <v>44506</v>
@@ -7778,19 +12241,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>37028</v>
+        <v>38452</v>
       </c>
       <c r="F62" s="1">
         <v>44506</v>
@@ -7830,19 +12293,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>37694</v>
+        <v>37969</v>
       </c>
       <c r="F64" s="1">
         <v>44506</v>
@@ -7856,19 +12319,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
       <c r="E65" s="1">
-        <v>34304</v>
+        <v>35324</v>
       </c>
       <c r="F65" s="1">
         <v>44506</v>
@@ -7882,19 +12345,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>34058</v>
+        <v>37101</v>
       </c>
       <c r="F66" s="1">
         <v>44506</v>
@@ -7908,19 +12371,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="1">
-        <v>35450</v>
+        <v>30812</v>
       </c>
       <c r="F67" s="1">
         <v>44506</v>
@@ -7934,19 +12397,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>33038</v>
+        <v>37028</v>
       </c>
       <c r="F68" s="1">
         <v>44506</v>
@@ -7960,19 +12423,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="1">
-        <v>33414</v>
+        <v>27949</v>
       </c>
       <c r="F69" s="1">
         <v>44506</v>
@@ -7986,19 +12449,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>34789</v>
+        <v>36219</v>
       </c>
       <c r="F70" s="1">
         <v>44506</v>
@@ -8012,19 +12475,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="1">
-        <v>35277</v>
+        <v>34062</v>
       </c>
       <c r="F71" s="1">
         <v>44506</v>
@@ -8038,19 +12501,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>31894</v>
+        <v>38211</v>
       </c>
       <c r="F72" s="1">
         <v>44506</v>
@@ -8064,19 +12527,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73" s="1">
-        <v>37358</v>
+        <v>27467</v>
       </c>
       <c r="F73" s="1">
         <v>44506</v>
@@ -8090,19 +12553,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>34537</v>
+        <v>36128</v>
       </c>
       <c r="F74" s="1">
         <v>44506</v>
@@ -8116,19 +12579,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="1">
-        <v>38752</v>
+        <v>24724</v>
       </c>
       <c r="F75" s="1">
         <v>44506</v>
@@ -8142,19 +12605,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <v>33562</v>
+        <v>34163</v>
       </c>
       <c r="F76" s="1">
         <v>44506</v>
@@ -8168,19 +12631,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="1">
-        <v>22885</v>
+        <v>37484</v>
       </c>
       <c r="F77" s="1">
         <v>44506</v>
@@ -8194,19 +12657,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>24724</v>
+        <v>34058</v>
       </c>
       <c r="F78" s="1">
         <v>44506</v>
@@ -8220,19 +12683,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
       <c r="E79" s="1">
-        <v>32326</v>
+        <v>22885</v>
       </c>
       <c r="F79" s="1">
         <v>44506</v>
@@ -8272,19 +12735,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="1">
-        <v>30117</v>
+        <v>27167</v>
       </c>
       <c r="F81" s="1">
         <v>44506</v>
@@ -8298,19 +12761,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>38308</v>
+        <v>36875</v>
       </c>
       <c r="F82" s="1">
         <v>44506</v>
@@ -8325,7 +12788,7 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{96B43C37-0B2A-4721-A5E5-900830909C75}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H82">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8333,7 +12796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K470"/>
   <sheetViews>
@@ -24778,7 +29241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D260D1-8EEE-4B84-BE83-A4EA8BEA63C5}">
   <dimension ref="A1:K128"/>
   <sheetViews>
